--- a/docs/FeliCaPlug.xlsx
+++ b/docs/FeliCaPlug.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="nRF51" sheetId="1" r:id="rId1"/>
+    <sheet name="iBeacon制御" sheetId="2" r:id="rId2"/>
+    <sheet name="iBeacon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,39 +26,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>ピン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>オープン時</t>
     <rPh sb="4" eb="5">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>方向</t>
     <rPh sb="0" eb="2">
       <t>ホウコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>nRF51</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>/RFDET</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FPから出力される
@@ -70,27 +72,27 @@
     <rPh sb="20" eb="21">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>IN</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>P0.08</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>GPIO</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SW</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FPへ出力する
@@ -112,23 +114,23 @@
     <rPh sb="33" eb="34">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プルダウン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>OUT</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>P0.09</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>IRQ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FPから出力される
@@ -145,15 +147,15 @@
     <rPh sb="17" eb="18">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>P0.11</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SEL</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FPへ出力する
@@ -162,19 +164,19 @@
     <rPh sb="3" eb="5">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>P0.12</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SPI-SS?</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>DATA</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SELによって方向が変化する</t>
@@ -184,23 +186,19 @@
     <rPh sb="10" eb="12">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IN/OUT</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>P0.13</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SPI</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SPICLK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FPへ出力
@@ -208,39 +206,294 @@
     <rPh sb="3" eb="5">
       <t>シュツリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>プルアップ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>P0.15</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SPI-CLK</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>LED</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>P0.21</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iBeacon制御</t>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iBeacon</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ADV_NONCONN_IND</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TxAdd</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>0:public  1:random</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>RxAdd</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>PDU-Len</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>AdvA</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>6oct</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>f7</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>d4</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>fa</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MACアドレス？</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>AdvData</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>33oct</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1a</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>LEN</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Manufacturerer Specific Data</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>4c</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>企業識別子</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シキベツシ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>5f</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>d9</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>bc</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2e</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>1b</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>8f</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>e8</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>c9</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>iBeacon proximity UUID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>major</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>minor</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>c5</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>RSSI</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NDEFのふりをするか？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初回は、さっぱりした作りにしておくため、やらない。</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なので、システムコードはFEE1とする。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ブロック0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iBeacon proximity UUID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FTモード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　FeliCa PlugはSPIスレーブ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SPI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>P0.16</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -261,8 +514,38 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +570,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -339,48 +634,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,61 +824,31 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>123063</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>37624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6096000" cy="3810000"/>
+          <a:ext cx="6095238" cy="3809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -731,18 +1119,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C25:H32"/>
+  <dimension ref="C25:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="3:8">
+    <row r="25" spans="3:9">
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +1146,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="3:8" ht="22.5">
+    <row r="26" spans="3:9" ht="22.5">
       <c r="C26" s="6" t="s">
         <v>5</v>
       </c>
@@ -780,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="56.25">
+    <row r="27" spans="3:9" ht="56.25">
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
@@ -800,7 +1186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="22.5">
+    <row r="28" spans="3:9" ht="22.5">
       <c r="C28" s="6" t="s">
         <v>16</v>
       </c>
@@ -820,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="33.75">
+    <row r="29" spans="3:9" ht="33.75">
       <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
@@ -840,68 +1226,798 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="6" t="s">
+    <row r="30" spans="3:9">
+      <c r="C30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="22.5">
-      <c r="C31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="22.5">
+      <c r="C32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="E32" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="4" width="9" style="13"/>
+    <col min="5" max="22" width="4" style="13" customWidth="1"/>
+    <col min="23" max="26" width="3.5" style="13" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22">
+      <c r="B2" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="C4" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="C5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="C6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="C8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="C11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:22">
+      <c r="C12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="E13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="F14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="F15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="F16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="5:23">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+    </row>
+    <row r="18" spans="5:23">
+      <c r="G18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" s="26">
+        <v>91</v>
+      </c>
+      <c r="W18" s="16"/>
+    </row>
+    <row r="19" spans="5:23">
+      <c r="G19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="16"/>
+    </row>
+    <row r="20" spans="5:23">
+      <c r="G20" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+    </row>
+    <row r="21" spans="5:23">
+      <c r="G21" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+    </row>
+    <row r="22" spans="5:23">
+      <c r="G22" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+    </row>
+    <row r="23" spans="5:23">
+      <c r="G23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+    </row>
+    <row r="24" spans="5:23">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="5:23">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="5:23">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="5:23">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+    </row>
+    <row r="28" spans="5:23">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+    </row>
+    <row r="29" spans="5:23">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+    </row>
+    <row r="30" spans="5:23">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+    </row>
+    <row r="31" spans="5:23">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+    </row>
+    <row r="32" spans="5:23">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+    </row>
+    <row r="33" spans="5:21">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+    </row>
+    <row r="34" spans="5:21">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+    </row>
+    <row r="35" spans="5:21">
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="G19:V19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>